--- a/medicine/Enfance/Yaël_Hassan/Yaël_Hassan.xlsx
+++ b/medicine/Enfance/Yaël_Hassan/Yaël_Hassan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ya%C3%ABl_Hassan</t>
+          <t>Yaël_Hassan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yaël Hassan, née en 1952[1] à Paris, est auteure jeunesse française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yaël Hassan, née en 1952 à Paris, est auteure jeunesse française.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ya%C3%ABl_Hassan</t>
+          <t>Yaël_Hassan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yaël Hassan naît à Paris en 1952, mais grandit en Israël, en France et en Belgique[1].
-Elle s'installe à Paris avec sa famille en 1984, et dix ans plus tard, en 1994, à 42 ans, un grave accident de la route la contraint d'arrêter toute activité ; elle profite alors de ses mois de convalescence pour se trouver une grande passion pour l'écriture[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yaël Hassan naît à Paris en 1952, mais grandit en Israël, en France et en Belgique.
+Elle s'installe à Paris avec sa famille en 1984, et dix ans plus tard, en 1994, à 42 ans, un grave accident de la route la contraint d'arrêter toute activité ; elle profite alors de ses mois de convalescence pour se trouver une grande passion pour l'écriture.
 Elle écrit principalement des livres jeunesse.
-Un grand-père tombé du ciel, publié en 1997, est son premier roman[1] : il obtiendra plusieurs récompenses, dont le prix Sorcières l'année suivante et le prix du Roman jeunesse 1996 du ministère de la Jeunesse et des Sports. Elle écrit par la suite plusieurs dizaines d'ouvrages jeunesse, couronnés de divers prix de littérature jeunesse[3],[4].
-En 2015, elle obtient le prix des Incorruptibles[5] (niveau CM2/6ème) pour son roman jeunesse La Fille qui n'aimait pas les fins, écrit avec Matthieu
-ieu[6] Radenac. L'ouvrage est également récompensé la même année du prix Chronos (Genève) et du prix Gragnotte[7].
+Un grand-père tombé du ciel, publié en 1997, est son premier roman : il obtiendra plusieurs récompenses, dont le prix Sorcières l'année suivante et le prix du Roman jeunesse 1996 du ministère de la Jeunesse et des Sports. Elle écrit par la suite plusieurs dizaines d'ouvrages jeunesse, couronnés de divers prix de littérature jeunesse,.
+En 2015, elle obtient le prix des Incorruptibles (niveau CM2/6ème) pour son roman jeunesse La Fille qui n'aimait pas les fins, écrit avec Matthieu
+ieu Radenac. L'ouvrage est également récompensé la même année du prix Chronos (Genève) et du prix Gragnotte.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ya%C3%ABl_Hassan</t>
+          <t>Yaël_Hassan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,18 +563,23 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1997 - 2009
-Un Grand-père tombé du ciel, 1997
+          <t>1997 - 2009</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Un Grand-père tombé du ciel, 1997
 Momo, petit prince des Bleuets, Syros, 1998 ; et rééditionsHistoires de Momo à suivre dans Momo des coquelicots (2010) et Des lauriers pour Momo (2012).
 Manon et Mamina, Casterman, 1998
 Quand Anna riait, Casterman, Dix et plus, 1999
 La Promesse, Père Castor, Castor Poche, 1999
 À Paris sous l'occupation, Casterman, collection Des enfants dans la guerre, 2000
 Le professeur de musique, Casterman, 2000
-Un jour un Jules m'@imera[8], Casterman, 2001
+Un jour un Jules m'@imera, Casterman, 2001
 Ni D'Eve, ni d'avant, Syros, 2001
 Un arbre pour Marie, Syros, 2001
-De S@cha à M@cha[8], coécrit avec Rachel Hausfater, Père Castor, 2001 ; rééd. Flammarion Jeunesse, 2019
+De S@cha à M@cha, coécrit avec Rachel Hausfater, Père Castor, 2001 ; rééd. Flammarion Jeunesse, 2019
 Lettres à Dolly, Casterman, 2002
 Petit roman portable, coécrit avec Rachel Hausfater, Le Livre de poche, 2002 ; réé. sous le titre Roman portable
 Alex, Syros, 2002
@@ -586,9 +605,43 @@
 Noa et Rawane à l'école de la paix ; Israël et Palestine, illustré par Lionel Larchevêque, Siloé, 2008
 Albert le toubab, Casterman, 2008
 Cutie Boy, Casterman, Romans Grand Format, avril 2009
-Le Garçon qui détestait le chocolat : la Mascotte, Oscar Jeunesse, 2009
-Depuis 2010
-Momo des coquelicots, Syros, Tempo, 2010Suite de Momo, petit prince des bleuts (1998) ; les aventures de Momo se poursuivront dans Des lauriers pour Momo (2012).
+Le Garçon qui détestait le chocolat : la Mascotte, Oscar Jeunesse, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yaël_Hassan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ya%C3%ABl_Hassan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Depuis 2010</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Momo des coquelicots, Syros, Tempo, 2010Suite de Momo, petit prince des bleuts (1998) ; les aventures de Momo se poursuivront dans Des lauriers pour Momo (2012).
 Libérer Rahia, Casterman, Feeling, février 2010
 Rue Stendhal, illustré par Pénélope Paicheler, Casterman, 2011
 La Dame du cinéma, Oskar, 2011
@@ -597,10 +650,10 @@
 Sacré Hugo !, illustré par Pénélope Paicheler, Casterman Junior, septembre 2012 ; à propos de Victor Hugo
 Le Journal de Philol, Plon Jeunesse, 2012 ; rééd. Le Livre de poche, Hachette, 2013
 Mon rêve d'Amérique : Journal de Reïzel, 1914-1915, Gallimard Jeunesse, 2013
-La Fille qui n'aimait pas les fins, coécrit avec Matt7ieu[6] Radenac, Syros, Tempo, 2013
+La Fille qui n'aimait pas les fins, coécrit avec Matt7ieu Radenac, Syros, Tempo, 2013
 Les demoiselles des Haut-Vents, Magnard Jeunesse, 2014
 M comme, Casterman junior, 2014
-C'est l'histoire d'un livre, ill. Matt7ieu[6] Radenac, coll. « Petit pré », éd. Le Pré du Plain, 2014
+C'est l'histoire d'un livre, ill. Matt7ieu Radenac, coll. « Petit pré », éd. Le Pré du Plain, 2014
 L'Heure des mamans, ill. Sophie Rastégar, éd. Utopique, 2014
 L'Usine, Syros, 2015
 Quand les enfants Finaly devinrent une affaire d'État, Scrineo, 2015
@@ -621,44 +674,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ya%C3%ABl_Hassan</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ya%C3%ABl_Hassan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Adaptations</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bandes dessinées
-Un grand père tombé du ciel, adapté par Marc Lizano, Jungle (Pepites), 2022[9],[10]</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ya%C3%ABl_Hassan</t>
+          <t>Yaël_Hassan</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -673,12 +695,50 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Un grand père tombé du ciel, adapté par Marc Lizano, Jungle (Pepites), 2022,</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yaël_Hassan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ya%C3%ABl_Hassan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Yaël Hassan a reçu de nombreux prix[3],[4], dont :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yaël Hassan a reçu de nombreux prix dont :
 Prix Sorcières 1998, pour Un Grand-père tombé du ciel
 Prix du Ministère de la Jeunesse et des Sports 1996, pour Un Grand-père tombé du ciel
 Grand Prix des jeunes lecteurs PEEP 1998, pour Un Grand-père tombé du ciel
@@ -709,40 +769,42 @@
 Prix des 9-11 ans - Littérature Jeunesse Lire en Poche Gradignan 2009, pour Sacré Hugo !
 Prix Goya découverte 2012, pour Rue Stendhal
 Prix de l'Encre d'Or 2012 pour Rue Stendhal
-Prix des Incorruptibles 2015[5] (niveau CM2/6e) pour La Fille qui n'aimait pas les fins, écrit avec Matt7ieu[6] Radenac
-Prix Gragnotte 2015[7] (niveau 5e) pour La Fille qui n'aimait pas les fins, écrit avec Matt7ieu Radenac
+Prix des Incorruptibles 2015 (niveau CM2/6e) pour La Fille qui n'aimait pas les fins, écrit avec Matt7ieu Radenac
+Prix Gragnotte 2015 (niveau 5e) pour La Fille qui n'aimait pas les fins, écrit avec Matt7ieu Radenac
 Prix Chronos 2015 (Genève) pour La Fille qui n'aimait pas les fins, écrit avec Matt7ieu Radenac
-Prix Goya découverte 2017[11] pour Perdus de vue, coécrit avec Rachel Hausfater.</t>
+Prix Goya découverte 2017 pour Perdus de vue, coécrit avec Rachel Hausfater.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ya%C3%ABl_Hassan</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yaël_Hassan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ya%C3%ABl_Hassan</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur (14 juillet 2018)[12]</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (14 juillet 2018)</t>
         </is>
       </c>
     </row>
